--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiEventoRiconoscimento.attoNascita.idComuneRegistrazione,!=,evento.idComuneRegistrazione}</t>
+  </si>
+  <si>
     <t>Copia integrale dell'atto di nascita del dichiarante</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -290,6 +299,9 @@
     <t>dataMorte</t>
   </si>
   <si>
+    <t>{evento.datiEventoRiconoscimento.preMorto,=,false}</t>
+  </si>
+  <si>
     <t>Ora</t>
   </si>
   <si>
@@ -416,6 +428,9 @@
     <t>evento.datiEventoRiconoscimento.assensoAtto</t>
   </si>
   <si>
+    <t>{evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)}</t>
+  </si>
+  <si>
     <t>Interprete</t>
   </si>
   <si>
@@ -423,6 +438,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -523,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G189"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -535,6 +553,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="96.625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -556,225 +575,261 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -796,3525 +851,4056 @@
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E110" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C160" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E160" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F160" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,58 +32,61 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiEventoRiconoscimento.attoNascita.idComuneRegistrazione,!=,evento.idComuneRegistrazione}</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del dichiarante</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita dell'altro genitore</t>
+  </si>
+  <si>
+    <t>Copia dell'atto di assenso del figlio</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiEventoRiconoscimento.attoNascita.idComuneRegistrazione,!=,evento.idComuneRegistrazione}</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del dichiarante</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita dell'altro genitore</t>
-  </si>
-  <si>
-    <t>Copia dell'atto di assenso del figlio</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -852,4055 +855,4055 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiEventoRiconoscimento.attoNascita.idComuneRegistrazione,!=,evento.idComuneRegistrazione}</t>
+    <t>evento.datiEventoRiconoscimento.attoNascita.idComuneRegistrazione,!=,evento.idComuneRegistrazione</t>
   </si>
   <si>
     <t>Copia integrale dell'atto di nascita del dichiarante</t>
@@ -62,6 +62,9 @@
     <t>Copia dell'atto di assenso del figlio</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -302,7 +305,7 @@
     <t>dataMorte</t>
   </si>
   <si>
-    <t>{evento.datiEventoRiconoscimento.preMorto,=,false}</t>
+    <t>evento.datiEventoRiconoscimento.preMorto,=,false</t>
   </si>
   <si>
     <t>Ora</t>
@@ -431,7 +434,7 @@
     <t>evento.datiEventoRiconoscimento.assensoAtto</t>
   </si>
   <si>
-    <t>{evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)}</t>
+    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -443,7 +446,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -544,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -556,7 +559,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="96.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="95.2421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -676,13 +679,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -699,13 +702,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -722,7 +725,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
@@ -745,7 +748,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -768,7 +771,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -791,7 +794,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
@@ -814,7 +817,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -836,3044 +839,3044 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>128</v>
@@ -3882,44 +3885,44 @@
         <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>131</v>
@@ -3928,228 +3931,228 @@
         <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>128</v>
@@ -4158,752 +4161,775 @@
         <v>13</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F169" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F171" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F177" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F179" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F180" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F185" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E189" s="2" t="s">
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>29</v>
+      <c r="C190" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="165">
   <si>
     <t>Sezione</t>
   </si>
@@ -320,22 +320,40 @@
     <t>minutoMorte</t>
   </si>
   <si>
-    <t>stato</t>
+    <t>Stato di morte</t>
   </si>
   <si>
     <t>idStatoMorte</t>
   </si>
   <si>
-    <t>provincia</t>
+    <t>Stato di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte</t>
+  </si>
+  <si>
+    <t>idProvinciaMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte - Descrizione</t>
   </si>
   <si>
     <t>siglaProvinciaMorte</t>
   </si>
   <si>
-    <t>comune</t>
+    <t>Comune di morte</t>
   </si>
   <si>
     <t>idComuneMorte</t>
+  </si>
+  <si>
+    <t>Comune di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneMorte</t>
   </si>
   <si>
     <t>indirizzo</t>
@@ -547,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H190"/>
+  <dimension ref="A1:H193"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3218,10 +3236,10 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3232,88 +3250,88 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3324,19 +3342,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3347,19 +3365,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3370,19 +3388,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3393,19 +3411,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3416,19 +3434,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3439,19 +3457,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3462,19 +3480,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3485,19 +3503,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3508,19 +3526,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3531,19 +3549,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3554,19 +3572,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3577,19 +3595,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3600,19 +3618,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3623,19 +3641,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3646,19 +3664,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3669,19 +3687,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3692,19 +3710,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3715,19 +3733,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3738,19 +3756,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3761,19 +3779,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3784,19 +3802,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3807,16 +3825,16 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>123</v>
@@ -3830,7 +3848,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>124</v>
@@ -3839,7 +3857,7 @@
         <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>125</v>
@@ -3853,7 +3871,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>126</v>
@@ -3862,7 +3880,7 @@
         <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>127</v>
@@ -3876,7 +3894,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>128</v>
@@ -3885,10 +3903,10 @@
         <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3899,19 +3917,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3922,19 +3940,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3945,19 +3963,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3968,19 +3986,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3991,19 +4009,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4014,85 +4032,85 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E151" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>123</v>
@@ -4101,12 +4119,12 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>124</v>
@@ -4115,7 +4133,7 @@
         <v>13</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>125</v>
@@ -4124,21 +4142,21 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>127</v>
@@ -4147,12 +4165,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>128</v>
@@ -4161,720 +4179,720 @@
         <v>13</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E186" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>154</v>
@@ -4888,7 +4906,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>155</v>
@@ -4897,13 +4915,13 @@
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>156</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>30</v>
@@ -4911,7 +4929,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>157</v>
@@ -4920,7 +4938,7 @@
         <v>13</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>158</v>
@@ -4929,6 +4947,75 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="167">
   <si>
     <t>Sezione</t>
   </si>
@@ -203,6 +203,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -428,22 +434,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Atto Assenso Figlio</t>
@@ -565,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H193"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1548,19 +1554,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1571,19 +1577,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1594,19 +1600,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1617,19 +1623,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1640,19 +1646,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1663,19 +1669,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1686,19 +1692,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1709,19 +1715,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1732,19 +1738,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1755,19 +1761,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1778,19 +1784,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1801,19 +1807,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1824,19 +1830,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1847,19 +1853,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1870,19 +1876,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1893,19 +1899,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1916,19 +1922,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1939,19 +1945,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1962,19 +1968,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1985,19 +1991,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2008,19 +2014,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2031,19 +2037,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2057,16 +2063,16 @@
         <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2080,7 +2086,7 @@
         <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
@@ -2089,7 +2095,7 @@
         <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2100,19 +2106,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2123,19 +2129,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2146,19 +2152,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2169,19 +2175,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2192,19 +2198,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2215,19 +2221,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2238,19 +2244,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2261,19 +2267,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2284,19 +2290,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2307,19 +2313,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2330,19 +2336,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2353,19 +2359,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2376,19 +2382,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2399,19 +2405,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2422,19 +2428,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2445,19 +2451,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2468,19 +2474,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2491,19 +2497,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2514,19 +2520,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2537,19 +2543,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2563,19 +2569,19 @@
         <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>30</v>
@@ -2586,7 +2592,7 @@
         <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>13</v>
@@ -2595,7 +2601,7 @@
         <v>92</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2609,7 +2615,7 @@
         <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
@@ -2618,7 +2624,7 @@
         <v>92</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2629,22 +2635,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>30</v>
@@ -2652,19 +2658,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2675,19 +2681,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2698,19 +2704,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2721,22 +2727,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>30</v>
@@ -2744,19 +2750,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2767,22 +2773,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>30</v>
@@ -2790,22 +2796,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>30</v>
@@ -2813,19 +2819,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2836,22 +2842,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>30</v>
@@ -2859,22 +2865,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>30</v>
@@ -2882,19 +2888,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2905,22 +2911,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>30</v>
@@ -2928,19 +2934,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2951,22 +2957,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>30</v>
@@ -2974,22 +2980,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>30</v>
@@ -2997,22 +3003,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>30</v>
@@ -3020,19 +3026,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3043,22 +3049,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>30</v>
@@ -3069,22 +3075,22 @@
         <v>93</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110">
@@ -3092,22 +3098,22 @@
         <v>93</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111">
@@ -3115,22 +3121,22 @@
         <v>93</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112">
@@ -3138,292 +3144,292 @@
         <v>93</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3434,19 +3440,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3457,19 +3463,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3480,19 +3486,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3503,19 +3509,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3526,19 +3532,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3549,19 +3555,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3572,19 +3578,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3595,19 +3601,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3618,19 +3624,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3641,19 +3647,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3664,19 +3670,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3687,19 +3693,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3710,19 +3716,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3733,19 +3739,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3756,19 +3762,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3779,19 +3785,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3802,19 +3808,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3828,16 +3834,16 @@
         <v>120</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3851,16 +3857,16 @@
         <v>120</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3874,16 +3880,16 @@
         <v>120</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3897,16 +3903,16 @@
         <v>120</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3920,16 +3926,16 @@
         <v>120</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3940,19 +3946,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3963,19 +3969,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3986,19 +3992,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4009,19 +4015,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4032,19 +4038,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4055,19 +4061,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4078,19 +4084,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4101,921 +4107,1059 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E155" s="2" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C158" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E158" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
+      <c r="E166" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D167" s="2" t="s">
+      <c r="E167" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D168" s="2" t="s">
+      <c r="E168" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D169" s="2" t="s">
+      <c r="E169" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D170" s="2" t="s">
+      <c r="E170" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F189" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G189" s="2" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F190" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G190" s="2" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E193" s="2" t="s">
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F193" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G193" s="2" t="s">
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="168">
   <si>
     <t>Sezione</t>
   </si>
@@ -470,7 +470,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -5007,7 +5010,7 @@
         <v>149</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>13</v>
@@ -5027,19 +5030,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -5050,19 +5053,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>20</v>
@@ -5073,10 +5076,10 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>13</v>
@@ -5085,7 +5088,7 @@
         <v>28</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
@@ -5096,10 +5099,10 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>13</v>
@@ -5108,7 +5111,7 @@
         <v>119</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5119,10 +5122,10 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5131,7 +5134,7 @@
         <v>119</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5142,10 +5145,10 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>13</v>
@@ -5154,7 +5157,7 @@
         <v>119</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="167">
   <si>
     <t>Sezione</t>
   </si>
@@ -471,9 +471,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -5010,7 +5007,7 @@
         <v>149</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>13</v>
@@ -5030,19 +5027,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="C194" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D194" s="2" t="s">
+      <c r="E194" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -5053,19 +5050,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>20</v>
@@ -5076,10 +5073,10 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>13</v>
@@ -5088,7 +5085,7 @@
         <v>28</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
@@ -5099,10 +5096,10 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>13</v>
@@ -5111,7 +5108,7 @@
         <v>119</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5122,10 +5119,10 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5134,7 +5131,7 @@
         <v>119</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5145,10 +5142,10 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>13</v>
@@ -5157,7 +5154,7 @@
         <v>119</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="168">
   <si>
     <t>Sezione</t>
   </si>
@@ -471,6 +471,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -5007,7 +5010,7 @@
         <v>149</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>13</v>
@@ -5027,19 +5030,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -5050,19 +5053,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>20</v>
@@ -5073,10 +5076,10 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>13</v>
@@ -5085,7 +5088,7 @@
         <v>28</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
@@ -5096,10 +5099,10 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>13</v>
@@ -5108,7 +5111,7 @@
         <v>119</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5119,10 +5122,10 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5131,7 +5134,7 @@
         <v>119</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5142,10 +5145,10 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>13</v>
@@ -5154,7 +5157,7 @@
         <v>119</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -285,6 +285,36 @@
   </si>
   <si>
     <t>evento.madre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -574,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H213"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -584,7 +614,7 @@
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="95.2421875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2109,19 +2139,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2132,19 +2162,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2155,19 +2185,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2178,19 +2208,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2201,19 +2231,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2224,19 +2254,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2247,19 +2277,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2270,19 +2300,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2293,19 +2323,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2316,19 +2346,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2339,19 +2369,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2362,19 +2392,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2385,19 +2415,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2408,19 +2438,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2431,19 +2461,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2454,19 +2484,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2477,19 +2507,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2500,19 +2530,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2523,19 +2553,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2546,19 +2576,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2569,19 +2599,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2592,19 +2622,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2615,19 +2645,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2638,22 +2668,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>30</v>
@@ -2661,19 +2691,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2684,19 +2714,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2707,19 +2737,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2730,19 +2760,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2753,19 +2783,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2776,19 +2806,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2799,22 +2829,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>30</v>
@@ -2822,19 +2852,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2845,22 +2875,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>30</v>
@@ -2868,19 +2898,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>18</v>
@@ -2891,19 +2921,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2914,19 +2944,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2937,19 +2967,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2960,19 +2990,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2983,19 +3013,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3006,22 +3036,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>30</v>
@@ -3029,22 +3059,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>30</v>
@@ -3052,22 +3082,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>30</v>
@@ -3075,19 +3105,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>18</v>
@@ -3098,22 +3128,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>30</v>
@@ -3121,19 +3151,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3144,19 +3174,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3167,275 +3197,275 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>30</v>
@@ -3443,19 +3473,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3466,22 +3496,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>30</v>
@@ -3489,272 +3519,272 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3765,19 +3795,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3788,19 +3818,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3811,19 +3841,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3834,19 +3864,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3857,19 +3887,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3880,19 +3910,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3903,19 +3933,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3926,19 +3956,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3949,19 +3979,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3972,19 +4002,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3995,19 +4025,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4018,19 +4048,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4041,19 +4071,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4064,19 +4094,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4087,19 +4117,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4110,19 +4140,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4133,19 +4163,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4156,19 +4186,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4179,19 +4209,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4202,19 +4232,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4225,944 +4255,1266 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="E164" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C167" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E196" s="2" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E199" s="2" t="s">
+      <c r="E208" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="156">
   <si>
     <t>Sezione</t>
   </si>
@@ -155,6 +155,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -209,13 +215,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -329,208 +335,136 @@
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>Dati Riconoscimento - Dati di morte</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>evento.datiDiMorte</t>
-  </si>
-  <si>
-    <t>dataMorte</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.preMorto,=,false</t>
-  </si>
-  <si>
-    <t>Ora</t>
-  </si>
-  <si>
-    <t>oraMorte</t>
-  </si>
-  <si>
-    <t>minuti</t>
-  </si>
-  <si>
-    <t>minutoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte</t>
-  </si>
-  <si>
-    <t>idStatoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte</t>
-  </si>
-  <si>
-    <t>idProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte</t>
-  </si>
-  <si>
-    <t>idComuneMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneMorte</t>
-  </si>
-  <si>
-    <t>indirizzo</t>
-  </si>
-  <si>
-    <t>indirizzoMorte</t>
-  </si>
-  <si>
-    <t>Dati prodotti</t>
+    <t>Dati Riconoscimento - Generalità discendenti</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
+  </si>
+  <si>
+    <t>Atto Nascita Figlio</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.attoNascita</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto Assenso Figlio</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)</t>
+  </si>
+  <si>
+    <t>Interprete</t>
+  </si>
+  <si>
+    <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>195,196</t>
+  </si>
+  <si>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Condizioni dichiarante</t>
+  </si>
+  <si>
+    <t>evento.datiDichiarante</t>
+  </si>
+  <si>
+    <t>comprensione</t>
+  </si>
+  <si>
+    <t>Motivo impedimento scrittura</t>
+  </si>
+  <si>
+    <t>motivoImpedimentoScrittura</t>
+  </si>
+  <si>
+    <t>Presenza interprete</t>
+  </si>
+  <si>
+    <t>ausilioInterprete</t>
+  </si>
+  <si>
+    <t>Figlio premorto</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
-  </si>
-  <si>
-    <t>Atto Nascita Figlio</t>
-  </si>
-  <si>
-    <t>Id atto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.attoNascita</t>
-  </si>
-  <si>
-    <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
-  </si>
-  <si>
-    <t>Atto Assenso Figlio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)</t>
-  </si>
-  <si>
-    <t>Interprete</t>
-  </si>
-  <si>
-    <t>evento.interprete</t>
-  </si>
-  <si>
-    <t>195,196</t>
-  </si>
-  <si>
-    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
-    <t>Dettagli evento</t>
-  </si>
-  <si>
-    <t>Condizioni dichiarante</t>
-  </si>
-  <si>
-    <t>evento.datiDichiarante</t>
-  </si>
-  <si>
-    <t>comprensione</t>
-  </si>
-  <si>
-    <t>Motivo impedimento scrittura</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScrittura</t>
-  </si>
-  <si>
-    <t>Presenza interprete</t>
-  </si>
-  <si>
-    <t>ausilioInterprete</t>
-  </si>
-  <si>
-    <t>Figlio premorto</t>
   </si>
   <si>
     <t>preMorto</t>
@@ -604,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:H208"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1610,19 +1544,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1633,19 +1567,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1656,19 +1590,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1679,19 +1613,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1702,19 +1636,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1725,19 +1659,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1748,19 +1682,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1771,19 +1705,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1794,19 +1728,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1817,19 +1751,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1840,19 +1774,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1863,19 +1797,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1886,19 +1820,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1909,19 +1843,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1932,19 +1866,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1955,19 +1889,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1978,19 +1912,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2001,19 +1935,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2024,19 +1958,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2047,19 +1981,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2070,19 +2004,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2093,19 +2027,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2116,19 +2050,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2139,19 +2073,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2162,19 +2096,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2185,19 +2119,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2208,19 +2142,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2231,19 +2165,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2254,19 +2188,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2277,19 +2211,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2300,19 +2234,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2323,19 +2257,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2346,19 +2280,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2369,19 +2303,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2392,19 +2326,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2415,19 +2349,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2438,19 +2372,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2461,19 +2395,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2484,19 +2418,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2507,19 +2441,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2530,19 +2464,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2553,19 +2487,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2576,19 +2510,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2599,19 +2533,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2622,19 +2556,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2645,19 +2579,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2668,19 +2602,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2691,19 +2625,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2714,19 +2648,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2737,19 +2671,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2760,19 +2694,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2783,19 +2717,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2806,19 +2740,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2829,19 +2763,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2852,19 +2786,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2875,19 +2809,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2901,7 +2835,7 @@
         <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2910,10 +2844,10 @@
         <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>30</v>
@@ -2924,16 +2858,16 @@
         <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2947,16 +2881,16 @@
         <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2967,22 +2901,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>30</v>
@@ -2990,19 +2924,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3013,19 +2947,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3036,19 +2970,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3059,22 +2993,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>30</v>
@@ -3082,19 +3016,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3105,22 +3039,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>30</v>
@@ -3128,22 +3062,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>30</v>
@@ -3151,22 +3085,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>30</v>
@@ -3174,19 +3108,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3197,22 +3131,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>30</v>
@@ -3220,22 +3154,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>30</v>
@@ -3243,19 +3177,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3266,22 +3200,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>30</v>
@@ -3289,19 +3223,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3312,22 +3246,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>30</v>
@@ -3335,22 +3269,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>30</v>
@@ -3358,22 +3292,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>30</v>
@@ -3381,19 +3315,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3404,22 +3338,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>30</v>
@@ -3427,22 +3361,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>30</v>
@@ -3450,22 +3384,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>30</v>
@@ -3473,19 +3407,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3496,22 +3430,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>30</v>
@@ -3522,22 +3456,22 @@
         <v>105</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128">
@@ -3545,22 +3479,22 @@
         <v>105</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129">
@@ -3568,22 +3502,22 @@
         <v>105</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130">
@@ -3591,200 +3525,200 @@
         <v>105</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3795,19 +3729,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3818,19 +3752,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3841,19 +3775,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3864,19 +3798,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3887,19 +3821,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3910,19 +3844,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3933,19 +3867,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3956,19 +3890,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3979,19 +3913,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4002,19 +3936,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4025,19 +3959,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4048,19 +3982,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4071,19 +4005,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4094,19 +4028,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4117,19 +4051,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4140,19 +4074,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4163,19 +4097,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4186,19 +4120,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4209,19 +4143,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4232,19 +4166,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4255,19 +4189,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4278,19 +4212,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4301,19 +4235,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4324,19 +4258,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4347,19 +4281,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4370,19 +4304,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4393,19 +4327,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4416,19 +4350,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4439,33 +4373,33 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>13</v>
@@ -4474,21 +4408,21 @@
         <v>134</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>13</v>
@@ -4497,1024 +4431,909 @@
         <v>134</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E173" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G213" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -538,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H214"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1567,19 +1573,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1590,19 +1596,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1613,19 +1619,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1636,19 +1642,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1659,19 +1665,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1682,19 +1688,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1705,19 +1711,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1728,19 +1734,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1751,19 +1757,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1774,19 +1780,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1797,19 +1803,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1820,19 +1826,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1843,19 +1849,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1866,19 +1872,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1889,19 +1895,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1912,19 +1918,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1935,19 +1941,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1958,19 +1964,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1981,19 +1987,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2004,19 +2010,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2027,19 +2033,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2050,19 +2056,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2079,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2102,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2125,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2142,19 +2148,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2171,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2194,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2217,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2240,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2263,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2286,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2309,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2332,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2355,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2378,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2401,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2418,19 +2424,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2441,19 +2447,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2470,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2493,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2516,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2539,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2562,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2579,19 +2585,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2602,19 +2608,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2625,19 +2631,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2648,19 +2654,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2671,19 +2677,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2694,19 +2700,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2717,19 +2723,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2740,19 +2746,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2763,19 +2769,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2786,19 +2792,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2809,19 +2815,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2832,19 +2838,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2855,19 +2861,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2878,19 +2884,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2904,7 +2910,7 @@
         <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2913,10 +2919,10 @@
         <v>106</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>30</v>
@@ -2927,16 +2933,16 @@
         <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2950,7 +2956,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -2959,7 +2965,7 @@
         <v>106</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2970,22 +2976,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>30</v>
@@ -2993,19 +2999,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3016,19 +3022,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3039,19 +3045,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3062,19 +3068,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3085,22 +3091,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>30</v>
@@ -3108,19 +3114,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3131,22 +3137,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>30</v>
@@ -3154,19 +3160,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>18</v>
@@ -3177,19 +3183,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3200,22 +3206,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>30</v>
@@ -3223,22 +3229,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>30</v>
@@ -3246,19 +3252,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3269,19 +3275,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3292,19 +3298,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>18</v>
@@ -3315,19 +3321,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3338,19 +3344,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>18</v>
@@ -3361,22 +3367,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>30</v>
@@ -3384,22 +3390,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>30</v>
@@ -3407,19 +3413,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3430,22 +3436,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>30</v>
@@ -3453,22 +3459,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>30</v>
@@ -3476,22 +3482,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>30</v>
@@ -3499,19 +3505,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3522,22 +3528,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>30</v>
@@ -3548,16 +3554,16 @@
         <v>107</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3571,19 +3577,19 @@
         <v>107</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>30</v>
@@ -3594,16 +3600,16 @@
         <v>107</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3617,19 +3623,19 @@
         <v>107</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>30</v>
@@ -3637,19 +3643,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3660,19 +3666,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3683,19 +3689,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3706,19 +3712,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3729,19 +3735,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3752,19 +3758,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3775,19 +3781,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3798,19 +3804,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3821,19 +3827,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3844,19 +3850,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3867,19 +3873,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3890,19 +3896,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3913,19 +3919,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3936,19 +3942,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3959,19 +3965,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3982,19 +3988,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4005,19 +4011,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4028,19 +4034,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4051,19 +4057,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4074,19 +4080,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4100,16 +4106,16 @@
         <v>109</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E155" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4123,16 +4129,16 @@
         <v>109</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4146,16 +4152,16 @@
         <v>109</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4169,16 +4175,16 @@
         <v>109</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4192,16 +4198,16 @@
         <v>109</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4212,19 +4218,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4235,19 +4241,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4258,19 +4264,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4281,19 +4287,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4304,19 +4310,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4327,19 +4333,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4350,19 +4356,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4373,967 +4379,1105 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E168" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C171" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D171" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E171" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
+      <c r="E179" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D180" s="2" t="s">
+      <c r="E180" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="2" t="s">
+      <c r="E181" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D182" s="2" t="s">
+      <c r="E182" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D183" s="2" t="s">
+      <c r="E183" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F202" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G202" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G204" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G205" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B208" s="2" t="s">
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E208" s="2" t="s">
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F208" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="2" t="s">
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -544,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H214"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1596,19 +1602,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1619,19 +1625,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1642,19 +1648,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1665,19 +1671,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1688,19 +1694,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1711,19 +1717,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1734,19 +1740,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1757,19 +1763,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1780,19 +1786,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1803,19 +1809,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1826,19 +1832,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1849,19 +1855,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1872,19 +1878,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1895,19 +1901,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1918,19 +1924,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1941,19 +1947,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1964,19 +1970,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1987,19 +1993,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2010,19 +2016,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2033,19 +2039,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2056,19 +2062,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2079,19 +2085,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2108,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2125,19 +2131,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2148,19 +2154,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2171,19 +2177,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2194,19 +2200,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2223,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2240,19 +2246,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2263,19 +2269,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2286,19 +2292,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2309,19 +2315,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2332,19 +2338,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2355,19 +2361,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2378,19 +2384,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2401,19 +2407,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2424,19 +2430,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2447,19 +2453,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2470,19 +2476,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2493,19 +2499,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2516,19 +2522,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2539,19 +2545,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2562,19 +2568,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2585,19 +2591,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2608,19 +2614,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2631,19 +2637,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2654,19 +2660,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2677,19 +2683,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2700,19 +2706,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2723,19 +2729,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2746,19 +2752,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2769,19 +2775,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2792,19 +2798,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2815,19 +2821,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2838,19 +2844,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2861,19 +2867,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2884,19 +2890,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2907,19 +2913,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2930,19 +2936,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2953,19 +2959,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2979,7 +2985,7 @@
         <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -2988,10 +2994,10 @@
         <v>108</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>30</v>
@@ -3002,16 +3008,16 @@
         <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3025,7 +3031,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3034,7 +3040,7 @@
         <v>108</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3045,22 +3051,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>30</v>
@@ -3068,19 +3074,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3091,19 +3097,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3114,19 +3120,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3137,19 +3143,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3160,22 +3166,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>30</v>
@@ -3183,19 +3189,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3206,22 +3212,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>30</v>
@@ -3229,19 +3235,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>18</v>
@@ -3252,19 +3258,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3275,22 +3281,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>30</v>
@@ -3298,19 +3304,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>18</v>
@@ -3321,19 +3327,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3344,22 +3350,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>30</v>
@@ -3367,22 +3373,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>30</v>
@@ -3390,19 +3396,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>18</v>
@@ -3413,19 +3419,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3436,19 +3442,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>18</v>
@@ -3459,22 +3465,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>30</v>
@@ -3482,22 +3488,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>30</v>
@@ -3505,19 +3511,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3528,22 +3534,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>30</v>
@@ -3551,22 +3557,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>30</v>
@@ -3574,22 +3580,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>30</v>
@@ -3597,19 +3603,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3620,22 +3626,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>30</v>
@@ -3646,16 +3652,16 @@
         <v>109</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3669,19 +3675,19 @@
         <v>109</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>30</v>
@@ -3692,16 +3698,16 @@
         <v>109</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3715,19 +3721,19 @@
         <v>109</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>30</v>
@@ -3735,19 +3741,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3758,19 +3764,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3781,19 +3787,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3804,19 +3810,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3827,19 +3833,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3850,19 +3856,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3873,19 +3879,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3896,19 +3902,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3919,19 +3925,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3942,19 +3948,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3965,19 +3971,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3988,19 +3994,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4011,19 +4017,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4034,19 +4040,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4057,19 +4063,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4080,19 +4086,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4103,19 +4109,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4126,19 +4132,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4149,19 +4155,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4172,19 +4178,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4195,19 +4201,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4221,16 +4227,16 @@
         <v>111</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4244,16 +4250,16 @@
         <v>111</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4267,16 +4273,16 @@
         <v>111</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4290,16 +4296,16 @@
         <v>111</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4313,16 +4319,16 @@
         <v>111</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4333,19 +4339,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4356,19 +4362,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4379,19 +4385,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4402,19 +4408,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4425,19 +4431,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4448,19 +4454,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4471,19 +4477,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4494,990 +4500,1128 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="E173" s="2" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C176" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="E184" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D185" s="2" t="s">
+      <c r="E185" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
+      <c r="E186" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D187" s="2" t="s">
+      <c r="E187" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D188" s="2" t="s">
+      <c r="E188" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F208" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G208" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B214" s="2" t="s">
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E214" s="2" t="s">
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G214" s="2" t="s">
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="162">
   <si>
     <t>Sezione</t>
   </si>
@@ -417,6 +417,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -550,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H222"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4598,7 +4604,7 @@
         <v>135</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>115</v>
@@ -4615,939 +4621,939 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E177" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="2" t="s">
+      <c r="E189" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D190" s="2" t="s">
+      <c r="E190" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
@@ -5558,22 +5564,22 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>30</v>
@@ -5581,19 +5587,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D219" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
@@ -5604,24 +5610,70 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E220" s="2" t="s">
+      <c r="C221" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F220" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G220" s="2" t="s">
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -345,12 +345,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
   </si>
   <si>
     <t>Atto Nascita Figlio</t>
@@ -556,16 +550,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H222"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.30859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="95.2421875" customWidth="true" bestFit="true"/>
@@ -3750,16 +3744,16 @@
         <v>111</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3773,16 +3767,16 @@
         <v>111</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3796,16 +3790,16 @@
         <v>111</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3819,16 +3813,16 @@
         <v>111</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3842,16 +3836,16 @@
         <v>111</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3865,16 +3859,16 @@
         <v>111</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3888,16 +3882,16 @@
         <v>111</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3911,16 +3905,16 @@
         <v>111</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3934,16 +3928,16 @@
         <v>111</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3957,16 +3951,16 @@
         <v>111</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3980,16 +3974,16 @@
         <v>111</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4003,16 +3997,16 @@
         <v>111</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4026,16 +4020,16 @@
         <v>111</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4046,1634 +4040,1036 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G222" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
@@ -1640,7 +1640,7 @@
         <v>44</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>30</v>
@@ -1824,7 +1824,7 @@
         <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>30</v>
@@ -1870,7 +1870,7 @@
         <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>30</v>
@@ -1893,7 +1893,7 @@
         <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>30</v>
@@ -1962,7 +1962,7 @@
         <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>30</v>
@@ -1985,7 +1985,7 @@
         <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>30</v>
@@ -2031,7 +2031,7 @@
         <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>30</v>
@@ -2077,7 +2077,7 @@
         <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>30</v>
@@ -2123,7 +2123,7 @@
         <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>30</v>
@@ -2146,7 +2146,7 @@
         <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>30</v>
@@ -2261,7 +2261,7 @@
         <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>30</v>
@@ -2307,7 +2307,7 @@
         <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>30</v>
@@ -2330,7 +2330,7 @@
         <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>30</v>
@@ -2353,7 +2353,7 @@
         <v>44</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>30</v>
@@ -2537,7 +2537,7 @@
         <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>30</v>
@@ -2583,7 +2583,7 @@
         <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>30</v>
@@ -2606,7 +2606,7 @@
         <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>30</v>
@@ -2675,7 +2675,7 @@
         <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>30</v>
@@ -2698,7 +2698,7 @@
         <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>30</v>
@@ -2744,7 +2744,7 @@
         <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>30</v>
@@ -2790,7 +2790,7 @@
         <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>30</v>
@@ -2836,7 +2836,7 @@
         <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>30</v>
@@ -2859,7 +2859,7 @@
         <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>30</v>
@@ -2974,7 +2974,7 @@
         <v>100</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>30</v>
@@ -3020,7 +3020,7 @@
         <v>104</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>30</v>
@@ -3043,7 +3043,7 @@
         <v>106</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>30</v>
@@ -3963,7 +3963,7 @@
         <v>130</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>30</v>
@@ -3986,7 +3986,7 @@
         <v>132</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>30</v>
@@ -4009,7 +4009,7 @@
         <v>134</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>30</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
@@ -4621,7 +4621,7 @@
         <v>67</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>141</v>
@@ -4644,7 +4644,7 @@
         <v>69</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>141</v>
@@ -4653,7 +4653,7 @@
         <v>70</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>143</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
@@ -431,7 +431,7 @@
     <t>evento.datiEventoRiconoscimento.assensoAtto</t>
   </si>
   <si>
-    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)</t>
+    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1,3)</t>
   </si>
   <si>
     <t>Interprete</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -165,6 +165,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -550,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:H206"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1625,22 +1637,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>30</v>
@@ -1648,19 +1660,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1671,22 +1683,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>30</v>
@@ -1694,19 +1706,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1717,19 +1729,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1740,19 +1752,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1763,19 +1775,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1786,22 +1798,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>30</v>
@@ -1809,22 +1821,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>30</v>
@@ -1832,19 +1844,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1855,22 +1867,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>30</v>
@@ -1878,22 +1890,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>30</v>
@@ -1901,22 +1913,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>30</v>
@@ -1924,19 +1936,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1947,19 +1959,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>18</v>
@@ -1970,19 +1982,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>18</v>
@@ -1993,19 +2005,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2016,22 +2028,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>30</v>
@@ -2039,22 +2051,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>30</v>
@@ -2062,19 +2074,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>18</v>
@@ -2085,19 +2097,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2108,19 +2120,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>18</v>
@@ -2131,22 +2143,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>30</v>
@@ -2154,22 +2166,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>30</v>
@@ -2177,19 +2189,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2200,22 +2212,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>30</v>
@@ -2223,22 +2235,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>30</v>
@@ -2246,22 +2258,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>30</v>
@@ -2269,19 +2281,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2292,22 +2304,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>30</v>
@@ -2315,22 +2327,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>30</v>
@@ -2338,19 +2350,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>18</v>
@@ -2361,19 +2373,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2384,22 +2396,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>30</v>
@@ -2407,22 +2419,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>30</v>
@@ -2430,22 +2442,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>30</v>
@@ -2453,19 +2465,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2476,19 +2488,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2499,19 +2511,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2522,22 +2534,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>30</v>
@@ -2545,22 +2557,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>30</v>
@@ -2568,22 +2580,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>30</v>
@@ -2591,22 +2603,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>30</v>
@@ -2614,19 +2626,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2637,19 +2649,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2660,19 +2672,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>18</v>
@@ -2683,22 +2695,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>30</v>
@@ -2706,22 +2718,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>30</v>
@@ -2729,19 +2741,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>18</v>
@@ -2752,19 +2764,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2775,22 +2787,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>30</v>
@@ -2798,22 +2810,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>30</v>
@@ -2821,19 +2833,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>18</v>
@@ -2844,22 +2856,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>30</v>
@@ -2867,22 +2879,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>30</v>
@@ -2890,19 +2902,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2913,22 +2925,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>30</v>
@@ -2936,19 +2948,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2959,19 +2971,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>18</v>
@@ -2982,22 +2994,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>30</v>
@@ -3005,22 +3017,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>30</v>
@@ -3028,22 +3040,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>30</v>
@@ -3051,22 +3063,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>30</v>
@@ -3074,19 +3086,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3097,22 +3109,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>30</v>
@@ -3120,19 +3132,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3143,22 +3155,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>30</v>
@@ -3166,22 +3178,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>30</v>
@@ -3189,22 +3201,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>30</v>
@@ -3212,19 +3224,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3235,22 +3247,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>30</v>
@@ -3258,19 +3270,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3281,22 +3293,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>30</v>
@@ -3304,19 +3316,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>18</v>
@@ -3327,19 +3339,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3350,19 +3362,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3373,22 +3385,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>30</v>
@@ -3396,22 +3408,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>30</v>
@@ -3419,22 +3431,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>30</v>
@@ -3442,22 +3454,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>30</v>
@@ -3465,22 +3477,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>30</v>
@@ -3488,19 +3500,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>18</v>
@@ -3511,19 +3523,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3534,22 +3546,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>30</v>
@@ -3557,19 +3569,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>18</v>
@@ -3580,22 +3592,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>30</v>
@@ -3603,19 +3615,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3626,22 +3638,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>30</v>
@@ -3649,19 +3661,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3672,19 +3684,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>18</v>
@@ -3695,19 +3707,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3718,19 +3730,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>18</v>
@@ -3741,22 +3753,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>30</v>
@@ -3764,19 +3776,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3787,19 +3799,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3810,19 +3822,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3833,19 +3845,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3856,22 +3868,22 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>30</v>
@@ -3879,19 +3891,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3902,22 +3914,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>30</v>
@@ -3925,19 +3937,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3948,22 +3960,22 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>30</v>
@@ -3971,22 +3983,22 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>30</v>
@@ -3994,22 +4006,22 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>30</v>
@@ -4017,19 +4029,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4040,321 +4052,321 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C158" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E158" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>143</v>
@@ -4362,19 +4374,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4385,19 +4397,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4408,19 +4420,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4431,19 +4443,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4454,19 +4466,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4477,19 +4489,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4500,19 +4512,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4523,553 +4535,783 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D191" s="2" t="s">
+      <c r="E191" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="2" t="s">
+      <c r="E192" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E193" s="2" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E194" s="2" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E195" s="2" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="E196" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E196" s="2" t="s">
+      <c r="E204" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="165">
   <si>
     <t>Sezione</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Copia dell'atto di assenso del figlio</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.assensoFiglio,=,2</t>
   </si>
   <si>
     <t>Autorizzazione del tribunale</t>
@@ -677,7 +680,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -689,7 +692,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -697,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -717,10 +720,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -740,10 +743,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -763,10 +766,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -786,10 +789,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -809,10 +812,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -832,10 +835,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -855,10 +858,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -896,4423 +899,4423 @@
         <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="166">
   <si>
     <t>Sezione</t>
   </si>
@@ -59,7 +59,7 @@
     <t>Copia integrale dell'atto di nascita dell'altro genitore</t>
   </si>
   <si>
-    <t>Copia dell'atto di assenso del figlio</t>
+    <t>Copia dell'atto di dichiarazione/assenso del figlio</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento.assensoFiglio,=,2</t>
@@ -440,10 +440,16 @@
     <t>tipologia</t>
   </si>
   <si>
-    <t>Atto Assenso Figlio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
+    <t>Assenso figlio</t>
+  </si>
+  <si>
+    <t>Assenso reso dinanzi a:</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento</t>
+  </si>
+  <si>
+    <t>assensoReso</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1,3)</t>
@@ -489,9 +495,6 @@
   </si>
   <si>
     <t>Figlio premorto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento</t>
   </si>
   <si>
     <t>preMorto</t>
@@ -565,16 +568,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H206"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.21875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="43.30859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="95.2421875" customWidth="true" bestFit="true"/>
@@ -4242,1079 +4245,803 @@
         <v>142</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="2" t="s">
         <v>31</v>
       </c>
     </row>
